--- a/deployment/Omaha_Cal_Info_CP03ISSP_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP03ISSP_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CP_mod\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="948" yWindow="7080" windowWidth="29040" windowHeight="12060" tabRatio="579"/>
+    <workbookView xWindow="8280" yWindow="3200" windowWidth="29040" windowHeight="12060" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -1950,17 +1945,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Read Me"/>
       <sheetName val="Moorings"/>
-      <sheetName val="Asset_Cal_Info"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2291,27 +2282,27 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="34.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="28">
       <c r="A1" s="7" t="s">
         <v>98</v>
       </c>
@@ -2349,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2368,7 +2359,9 @@
       <c r="F2" s="35">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="36">
+        <v>42292</v>
+      </c>
       <c r="H2" s="46" t="s">
         <v>89</v>
       </c>
@@ -2389,19 +2382,19 @@
       </c>
       <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="20" customFormat="1">
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="20" customFormat="1">
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="20" customFormat="1">
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
@@ -2409,73 +2402,73 @@
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="20" customFormat="1">
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="20" customFormat="1">
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="20" customFormat="1">
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="20" customFormat="1">
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="20" customFormat="1">
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="20" customFormat="1">
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="20" customFormat="1">
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="20" customFormat="1">
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="20" customFormat="1">
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="20" customFormat="1">
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:14" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="20" customFormat="1">
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="4:7" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="20" customFormat="1">
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
@@ -2500,19 +2493,19 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57.33203125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="61.88671875" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2541,10 +2534,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="13" customFormat="1">
       <c r="A3" s="17" t="s">
         <v>86</v>
       </c>
@@ -2573,7 +2566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="13" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>86</v>
       </c>
@@ -2602,7 +2595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="13" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>86</v>
       </c>
@@ -2631,7 +2624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="13" customFormat="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="26"/>
@@ -2640,7 +2633,7 @@
       <c r="F6" s="29"/>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="13" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>84</v>
       </c>
@@ -2667,7 +2660,7 @@
       </c>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="13" customFormat="1">
       <c r="A8" s="14" t="s">
         <v>84</v>
       </c>
@@ -2694,7 +2687,7 @@
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="13" customFormat="1">
       <c r="A9" s="14" t="s">
         <v>84</v>
       </c>
@@ -2721,7 +2714,7 @@
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="13" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>84</v>
       </c>
@@ -2748,7 +2741,7 @@
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="13" customFormat="1">
       <c r="A11" s="14" t="s">
         <v>84</v>
       </c>
@@ -2775,7 +2768,7 @@
       </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="13" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>84</v>
       </c>
@@ -2802,7 +2795,7 @@
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="13" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>84</v>
       </c>
@@ -2829,7 +2822,7 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="13" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>84</v>
       </c>
@@ -2856,7 +2849,7 @@
       </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="13" customFormat="1">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="26"/>
@@ -2865,7 +2858,7 @@
       <c r="F15" s="29"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="13" customFormat="1">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -2894,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="13" customFormat="1">
       <c r="A17" s="14" t="s">
         <v>66</v>
       </c>
@@ -2923,7 +2916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="13" customFormat="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="26"/>
@@ -2932,7 +2925,7 @@
       <c r="F18" s="29"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="13" customFormat="1">
       <c r="A19" s="17" t="s">
         <v>85</v>
       </c>
@@ -2961,7 +2954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="13" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>85</v>
       </c>
@@ -2990,7 +2983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="13" customFormat="1">
       <c r="A21" s="14" t="s">
         <v>85</v>
       </c>
@@ -3019,7 +3012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="13" customFormat="1">
       <c r="A22" s="14" t="s">
         <v>85</v>
       </c>
@@ -3048,7 +3041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="13" customFormat="1">
       <c r="A23" s="14" t="s">
         <v>85</v>
       </c>
@@ -3077,7 +3070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="13" customFormat="1">
       <c r="A24" s="14" t="s">
         <v>85</v>
       </c>
@@ -3109,7 +3102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="13" customFormat="1">
       <c r="A25" s="14" t="s">
         <v>85</v>
       </c>
@@ -3141,7 +3134,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="13" customFormat="1">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="26"/>
@@ -3153,7 +3146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="13" customFormat="1">
       <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
@@ -3182,7 +3175,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="13" customFormat="1">
       <c r="A28" s="14" t="s">
         <v>67</v>
       </c>
@@ -3211,7 +3204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="13" customFormat="1">
       <c r="A29" s="14" t="s">
         <v>67</v>
       </c>
@@ -3240,7 +3233,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="13" customFormat="1">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="26"/>
@@ -3252,7 +3245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="13" customFormat="1">
       <c r="A31" s="17" t="s">
         <v>88</v>
       </c>
@@ -3284,7 +3277,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="13" customFormat="1">
       <c r="A32" s="14" t="s">
         <v>88</v>
       </c>
@@ -3313,7 +3306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="13" customFormat="1">
       <c r="A33" s="14" t="s">
         <v>88</v>
       </c>
@@ -3342,7 +3335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="13" customFormat="1">
       <c r="A34" s="14" t="s">
         <v>88</v>
       </c>
@@ -3371,7 +3364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="13" customFormat="1">
       <c r="A35" s="14" t="s">
         <v>88</v>
       </c>
@@ -3400,7 +3393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="13" customFormat="1">
       <c r="A36" s="14" t="s">
         <v>88</v>
       </c>
@@ -3429,7 +3422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="13" customFormat="1">
       <c r="A37" s="14" t="s">
         <v>88</v>
       </c>
@@ -3458,7 +3451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="13" customFormat="1">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -3487,7 +3480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="13" customFormat="1">
       <c r="A39" s="14" t="s">
         <v>88</v>
       </c>
@@ -3516,7 +3509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="13" customFormat="1">
       <c r="A40" s="14" t="s">
         <v>88</v>
       </c>
@@ -3545,7 +3538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="13" customFormat="1">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="26"/>
@@ -3554,7 +3547,7 @@
       <c r="F41" s="29"/>
       <c r="H41" s="29"/>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="13" customFormat="1">
       <c r="A42" s="17" t="s">
         <v>87</v>
       </c>
@@ -3583,7 +3576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="13" customFormat="1">
       <c r="A43" s="14" t="s">
         <v>87</v>
       </c>
@@ -3612,7 +3605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="13" customFormat="1">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="26"/>
@@ -3621,7 +3614,7 @@
       <c r="F44" s="29"/>
       <c r="H44" s="29"/>
     </row>
-    <row r="45" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="13" customFormat="1">
       <c r="A45" s="17" t="s">
         <v>68</v>
       </c>
@@ -3647,7 +3640,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="13" customFormat="1">
       <c r="A46" s="14" t="s">
         <v>68</v>
       </c>
@@ -3673,7 +3666,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="13" customFormat="1">
       <c r="A47" s="14" t="s">
         <v>68</v>
       </c>
@@ -3699,12 +3692,12 @@
         <v>1.3589</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="24" customFormat="1">
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="13" customFormat="1">
       <c r="A49" s="32" t="s">
         <v>69</v>
       </c>
@@ -3725,10 +3718,10 @@
       </c>
       <c r="H49" s="31"/>
     </row>
-    <row r="50" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" s="13" customFormat="1"/>
+    <row r="51" spans="1:8" s="13" customFormat="1"/>
+    <row r="52" spans="1:8" s="13" customFormat="1"/>
+    <row r="53" spans="1:8" s="13" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3748,12 +3741,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="46"/>
+    <col min="1" max="16384" width="11.5" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="A1" s="46">
         <v>-1.5056E-2</v>
       </c>
@@ -3860,7 +3853,7 @@
         <v>1.294E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2" s="46">
         <v>-5.8440000000000002E-3</v>
       </c>
@@ -3967,7 +3960,7 @@
         <v>6.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3" s="46">
         <v>4.176E-3</v>
       </c>
@@ -4074,7 +4067,7 @@
         <v>-3.9199999999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4" s="46">
         <v>1.2252000000000001E-2</v>
       </c>
@@ -4181,7 +4174,7 @@
         <v>-4.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5" s="46">
         <v>1.7111999999999999E-2</v>
       </c>
@@ -4288,7 +4281,7 @@
         <v>-8.1630000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="A6" s="46">
         <v>1.7052999999999999E-2</v>
       </c>
@@ -4395,7 +4388,7 @@
         <v>-9.8589999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7" s="46">
         <v>1.5844E-2</v>
       </c>
@@ -4502,7 +4495,7 @@
         <v>-1.004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8" s="46">
         <v>1.3283E-2</v>
       </c>
@@ -4609,7 +4602,7 @@
         <v>-9.9430000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9" s="46">
         <v>1.0748000000000001E-2</v>
       </c>
@@ -4716,7 +4709,7 @@
         <v>-9.0229999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10" s="46">
         <v>8.2089999999999993E-3</v>
       </c>
@@ -4823,7 +4816,7 @@
         <v>-8.5810000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="A11" s="46">
         <v>6.5339999999999999E-3</v>
       </c>
@@ -4930,7 +4923,7 @@
         <v>-7.4029999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12" s="46">
         <v>4.4169999999999999E-3</v>
       </c>
@@ -5037,7 +5030,7 @@
         <v>-7.0800000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13" s="46">
         <v>3.0109999999999998E-3</v>
       </c>
@@ -5144,7 +5137,7 @@
         <v>-6.1859999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14" s="46">
         <v>1.431E-3</v>
       </c>
@@ -5251,7 +5244,7 @@
         <v>-5.7149999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15" s="46">
         <v>3.9899999999999999E-4</v>
       </c>
@@ -5358,7 +5351,7 @@
         <v>-5.0629999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="A16" s="46">
         <v>-9.0300000000000005E-4</v>
       </c>
@@ -5465,7 +5458,7 @@
         <v>-4.6909999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35">
       <c r="A17" s="46">
         <v>-1.867E-3</v>
       </c>
@@ -5572,7 +5565,7 @@
         <v>-4.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35">
       <c r="A18" s="46">
         <v>-2.6129999999999999E-3</v>
       </c>
@@ -5679,7 +5672,7 @@
         <v>-3.8040000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35">
       <c r="A19" s="46">
         <v>-3.545E-3</v>
       </c>
@@ -5786,7 +5779,7 @@
         <v>-3.6129999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35">
       <c r="A20" s="46">
         <v>-4.5630000000000002E-3</v>
       </c>
@@ -5893,7 +5886,7 @@
         <v>-3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35">
       <c r="A21" s="46">
         <v>-5.2230000000000002E-3</v>
       </c>
@@ -6000,7 +5993,7 @@
         <v>-2.993E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35">
       <c r="A22" s="46">
         <v>-5.8770000000000003E-3</v>
       </c>
@@ -6107,7 +6100,7 @@
         <v>-2.7030000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35">
       <c r="A23" s="46">
         <v>-6.4209999999999996E-3</v>
       </c>
@@ -6214,7 +6207,7 @@
         <v>-2.552E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35">
       <c r="A24" s="46">
         <v>-6.4949999999999999E-3</v>
       </c>
@@ -6321,7 +6314,7 @@
         <v>-2.3470000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35">
       <c r="A25" s="46">
         <v>-7.1659999999999996E-3</v>
       </c>
@@ -6428,7 +6421,7 @@
         <v>-2.2009999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35">
       <c r="A26" s="46">
         <v>-7.613E-3</v>
       </c>
@@ -6535,7 +6528,7 @@
         <v>-2.055E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35">
       <c r="A27" s="46">
         <v>-7.8009999999999998E-3</v>
       </c>
@@ -6642,7 +6635,7 @@
         <v>-1.9599999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35">
       <c r="A28" s="46">
         <v>-8.1270000000000005E-3</v>
       </c>
@@ -6749,7 +6742,7 @@
         <v>-1.7459999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35">
       <c r="A29" s="46">
         <v>-8.2660000000000008E-3</v>
       </c>
@@ -6856,7 +6849,7 @@
         <v>-1.751E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35">
       <c r="A30" s="46">
         <v>-8.5299999999999994E-3</v>
       </c>
@@ -6963,7 +6956,7 @@
         <v>-1.6590000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35">
       <c r="A31" s="46">
         <v>-8.5810000000000001E-3</v>
       </c>
@@ -7070,7 +7063,7 @@
         <v>-1.4450000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35">
       <c r="A32" s="46">
         <v>-8.8900000000000003E-3</v>
       </c>
@@ -7177,7 +7170,7 @@
         <v>-1.39E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35">
       <c r="A33" s="46">
         <v>-8.8900000000000003E-3</v>
       </c>
@@ -7284,7 +7277,7 @@
         <v>-1.379E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35">
       <c r="A34" s="46">
         <v>-8.8249999999999995E-3</v>
       </c>
@@ -7391,7 +7384,7 @@
         <v>-1.255E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35">
       <c r="A35" s="46">
         <v>-8.8000000000000005E-3</v>
       </c>
@@ -7498,7 +7491,7 @@
         <v>-1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35">
       <c r="A36" s="46">
         <v>-8.7349999999999997E-3</v>
       </c>
@@ -7605,7 +7598,7 @@
         <v>-1.1169999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35">
       <c r="A37" s="46">
         <v>-8.9879999999999995E-3</v>
       </c>
@@ -7712,7 +7705,7 @@
         <v>-1.0989999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35">
       <c r="A38" s="46">
         <v>-9.0729999999999995E-3</v>
       </c>
@@ -7819,7 +7812,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35">
       <c r="A39" s="46">
         <v>-9.306E-3</v>
       </c>
@@ -7926,7 +7919,7 @@
         <v>-1.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35">
       <c r="A40" s="46">
         <v>-9.6349999999999995E-3</v>
       </c>
@@ -8033,7 +8026,7 @@
         <v>-9.8700000000000003E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35">
       <c r="A41" s="46">
         <v>-9.7009999999999996E-3</v>
       </c>
@@ -8140,7 +8133,7 @@
         <v>-9.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35">
       <c r="A42" s="46">
         <v>-9.7900000000000001E-3</v>
       </c>
@@ -8247,7 +8240,7 @@
         <v>-9.1600000000000004E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35">
       <c r="A43" s="46">
         <v>-9.9539999999999993E-3</v>
       </c>
@@ -8354,7 +8347,7 @@
         <v>-8.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35">
       <c r="A44" s="46">
         <v>-9.9480000000000002E-3</v>
       </c>
@@ -8461,7 +8454,7 @@
         <v>-9.0700000000000004E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35">
       <c r="A45" s="46">
         <v>-9.3559999999999997E-3</v>
       </c>
@@ -8568,7 +8561,7 @@
         <v>-7.67E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35">
       <c r="A46" s="46">
         <v>-9.1830000000000002E-3</v>
       </c>
@@ -8675,7 +8668,7 @@
         <v>-6.8400000000000004E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35">
       <c r="A47" s="46">
         <v>-9.0799999999999995E-3</v>
       </c>
@@ -8782,7 +8775,7 @@
         <v>-6.3599999999999996E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35">
       <c r="A48" s="46">
         <v>-9.2200000000000008E-3</v>
       </c>
@@ -8889,7 +8882,7 @@
         <v>-5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35">
       <c r="A49" s="46">
         <v>-9.1199999999999996E-3</v>
       </c>
@@ -8996,7 +8989,7 @@
         <v>-5.4299999999999997E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35">
       <c r="A50" s="46">
         <v>-9.1179999999999994E-3</v>
       </c>
@@ -9103,7 +9096,7 @@
         <v>-4.75E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35">
       <c r="A51" s="46">
         <v>-9.1940000000000008E-3</v>
       </c>
@@ -9210,7 +9203,7 @@
         <v>-4.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35">
       <c r="A52" s="46">
         <v>-9.1599999999999997E-3</v>
       </c>
@@ -9317,7 +9310,7 @@
         <v>-3.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35">
       <c r="A53" s="46">
         <v>-9.1500000000000001E-3</v>
       </c>
@@ -9424,7 +9417,7 @@
         <v>-3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35">
       <c r="A54" s="46">
         <v>-9.0740000000000005E-3</v>
       </c>
@@ -9531,7 +9524,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35">
       <c r="A55" s="46">
         <v>-9.0170000000000007E-3</v>
       </c>
@@ -9638,7 +9631,7 @@
         <v>-3.1199999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35">
       <c r="A56" s="46">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -9745,7 +9738,7 @@
         <v>-3.1799999999999998E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35">
       <c r="A57" s="46">
         <v>-9.1299999999999992E-3</v>
       </c>
@@ -9852,7 +9845,7 @@
         <v>-3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35">
       <c r="A58" s="46">
         <v>-9.0659999999999994E-3</v>
       </c>
@@ -9959,7 +9952,7 @@
         <v>-2.32E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35">
       <c r="A59" s="46">
         <v>-9.1540000000000007E-3</v>
       </c>
@@ -10066,7 +10059,7 @@
         <v>-2.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35">
       <c r="A60" s="46">
         <v>-9.0840000000000001E-3</v>
       </c>
@@ -10173,7 +10166,7 @@
         <v>-2.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35">
       <c r="A61" s="46">
         <v>-8.9820000000000004E-3</v>
       </c>
@@ -10280,7 +10273,7 @@
         <v>-2.4600000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35">
       <c r="A62" s="46">
         <v>-9.0709999999999992E-3</v>
       </c>
@@ -10387,7 +10380,7 @@
         <v>-2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35">
       <c r="A63" s="46">
         <v>-9.0010000000000003E-3</v>
       </c>
@@ -10494,7 +10487,7 @@
         <v>-2.4399999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35">
       <c r="A64" s="46">
         <v>-8.8319999999999996E-3</v>
       </c>
@@ -10601,7 +10594,7 @@
         <v>-2.4600000000000002E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35">
       <c r="A65" s="46">
         <v>-8.7670000000000005E-3</v>
       </c>
@@ -10708,7 +10701,7 @@
         <v>-2.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35">
       <c r="A66" s="46">
         <v>-8.5509999999999996E-3</v>
       </c>
@@ -10815,7 +10808,7 @@
         <v>-3.59E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35">
       <c r="A67" s="46">
         <v>-8.4169999999999991E-3</v>
       </c>
@@ -10922,7 +10915,7 @@
         <v>-3.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35">
       <c r="A68" s="46">
         <v>-8.4360000000000008E-3</v>
       </c>
@@ -11029,7 +11022,7 @@
         <v>-3.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35">
       <c r="A69" s="46">
         <v>-8.2290000000000002E-3</v>
       </c>
@@ -11136,7 +11129,7 @@
         <v>-3.77E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35">
       <c r="A70" s="46">
         <v>-8.2120000000000005E-3</v>
       </c>
@@ -11243,7 +11236,7 @@
         <v>-3.48E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35">
       <c r="A71" s="46">
         <v>-7.8359999999999992E-3</v>
       </c>
@@ -11350,7 +11343,7 @@
         <v>-3.21E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35">
       <c r="A72" s="46">
         <v>-7.7860000000000004E-3</v>
       </c>
@@ -11457,7 +11450,7 @@
         <v>-3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35">
       <c r="A73" s="46">
         <v>-8.0669999999999995E-3</v>
       </c>
@@ -11564,7 +11557,7 @@
         <v>-2.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35">
       <c r="A74" s="46">
         <v>-8.2229999999999994E-3</v>
       </c>
@@ -11671,7 +11664,7 @@
         <v>-2.4899999999999998E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35">
       <c r="A75" s="46">
         <v>-8.2740000000000001E-3</v>
       </c>
@@ -11778,7 +11771,7 @@
         <v>-1.08E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35">
       <c r="A76" s="46">
         <v>-8.3269999999999993E-3</v>
       </c>
@@ -11885,7 +11878,7 @@
         <v>-6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35">
       <c r="A77" s="46">
         <v>-8.3599999999999994E-3</v>
       </c>
@@ -11992,7 +11985,7 @@
         <v>-8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35">
       <c r="A78" s="46">
         <v>-8.3389999999999992E-3</v>
       </c>
@@ -12099,7 +12092,7 @@
         <v>-7.8999999999999996E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35">
       <c r="A79" s="46">
         <v>-8.26E-3</v>
       </c>
@@ -12206,7 +12199,7 @@
         <v>-1.17E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35">
       <c r="A80" s="46">
         <v>-8.1329999999999996E-3</v>
       </c>
@@ -12332,12 +12325,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="28"/>
+    <col min="1" max="16384" width="11.5" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="46" customFormat="1">
       <c r="A1" s="46">
         <v>2.0611000000000001E-2</v>
       </c>
@@ -12444,7 +12437,7 @@
         <v>-1.5261E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="46" customFormat="1">
       <c r="A2" s="46">
         <v>1.3454000000000001E-2</v>
       </c>
@@ -12551,7 +12544,7 @@
         <v>-1.11E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" s="46" customFormat="1">
       <c r="A3" s="46">
         <v>4.8050000000000002E-3</v>
       </c>
@@ -12658,7 +12651,7 @@
         <v>-1.0933999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" s="46" customFormat="1">
       <c r="A4" s="46">
         <v>1.4220000000000001E-3</v>
       </c>
@@ -12765,7 +12758,7 @@
         <v>-7.6239999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="46" customFormat="1">
       <c r="A5" s="46">
         <v>-3.4770000000000001E-3</v>
       </c>
@@ -12872,7 +12865,7 @@
         <v>-6.894E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="46" customFormat="1">
       <c r="A6" s="46">
         <v>-4.6020000000000002E-3</v>
       </c>
@@ -12979,7 +12972,7 @@
         <v>-5.4809999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" s="46" customFormat="1">
       <c r="A7" s="46">
         <v>-6.5989999999999998E-3</v>
       </c>
@@ -13086,7 +13079,7 @@
         <v>-4.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" s="46" customFormat="1">
       <c r="A8" s="46">
         <v>-6.9090000000000002E-3</v>
       </c>
@@ -13193,7 +13186,7 @@
         <v>-3.4139999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" s="46" customFormat="1">
       <c r="A9" s="46">
         <v>-7.7000000000000002E-3</v>
       </c>
@@ -13300,7 +13293,7 @@
         <v>-2.2209999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" s="46" customFormat="1">
       <c r="A10" s="46">
         <v>-8.9130000000000008E-3</v>
       </c>
@@ -13407,7 +13400,7 @@
         <v>-2.003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" s="46" customFormat="1">
       <c r="A11" s="46">
         <v>-7.3920000000000001E-3</v>
       </c>
@@ -13514,7 +13507,7 @@
         <v>-1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" s="46" customFormat="1">
       <c r="A12" s="46">
         <v>-8.5339999999999999E-3</v>
       </c>
@@ -13621,7 +13614,7 @@
         <v>-1.1299999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" s="46" customFormat="1">
       <c r="A13" s="46">
         <v>-7.7470000000000004E-3</v>
       </c>
@@ -13728,7 +13721,7 @@
         <v>-5.5900000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" s="46" customFormat="1">
       <c r="A14" s="46">
         <v>-7.8139999999999998E-3</v>
       </c>
@@ -13835,7 +13828,7 @@
         <v>-9.5299999999999996E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" s="46" customFormat="1">
       <c r="A15" s="46">
         <v>-7.7400000000000004E-3</v>
       </c>
@@ -13942,7 +13935,7 @@
         <v>-4.2200000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" s="46" customFormat="1">
       <c r="A16" s="46">
         <v>-7.0010000000000003E-3</v>
       </c>
@@ -14049,7 +14042,7 @@
         <v>-1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" s="46" customFormat="1">
       <c r="A17" s="46">
         <v>-6.3699999999999998E-3</v>
       </c>
@@ -14156,7 +14149,7 @@
         <v>-4.0999999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" s="46" customFormat="1">
       <c r="A18" s="46">
         <v>-6.6899999999999998E-3</v>
       </c>
@@ -14263,7 +14256,7 @@
         <v>-2.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" s="46" customFormat="1">
       <c r="A19" s="46">
         <v>-6.5129999999999997E-3</v>
       </c>
@@ -14370,7 +14363,7 @@
         <v>-4.7800000000000002E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" s="46" customFormat="1">
       <c r="A20" s="46">
         <v>-5.2760000000000003E-3</v>
       </c>
@@ -14477,7 +14470,7 @@
         <v>-3.59E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" s="46" customFormat="1">
       <c r="A21" s="46">
         <v>-5.3569999999999998E-3</v>
       </c>
@@ -14584,7 +14577,7 @@
         <v>-6.0899999999999995E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" s="46" customFormat="1">
       <c r="A22" s="46">
         <v>-4.7190000000000001E-3</v>
       </c>
@@ -14691,7 +14684,7 @@
         <v>-5.8600000000000004E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" s="46" customFormat="1">
       <c r="A23" s="46">
         <v>-4.1139999999999996E-3</v>
       </c>
@@ -14798,7 +14791,7 @@
         <v>-8.03E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" s="46" customFormat="1">
       <c r="A24" s="46">
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -14905,7 +14898,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" s="46" customFormat="1">
       <c r="A25" s="46">
         <v>-3.2989999999999998E-3</v>
       </c>
@@ -15012,7 +15005,7 @@
         <v>-9.0700000000000004E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" s="46" customFormat="1">
       <c r="A26" s="46">
         <v>-2.9619999999999998E-3</v>
       </c>
@@ -15119,7 +15112,7 @@
         <v>-8.8099999999999995E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" s="46" customFormat="1">
       <c r="A27" s="46">
         <v>-2.9450000000000001E-3</v>
       </c>
@@ -15226,7 +15219,7 @@
         <v>-1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" s="46" customFormat="1">
       <c r="A28" s="46">
         <v>-2.0839999999999999E-3</v>
       </c>
@@ -15333,7 +15326,7 @@
         <v>-1.1349999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" s="46" customFormat="1">
       <c r="A29" s="46">
         <v>-1.993E-3</v>
       </c>
@@ -15440,7 +15433,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" s="46" customFormat="1">
       <c r="A30" s="46">
         <v>-1.6969999999999999E-3</v>
       </c>
@@ -15547,7 +15540,7 @@
         <v>-1.088E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" s="46" customFormat="1">
       <c r="A31" s="46">
         <v>-9.8999999999999999E-4</v>
       </c>
@@ -15654,7 +15647,7 @@
         <v>-1.121E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" s="46" customFormat="1">
       <c r="A32" s="46">
         <v>-8.8199999999999997E-4</v>
       </c>
@@ -15761,7 +15754,7 @@
         <v>-1.0189999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" s="46" customFormat="1">
       <c r="A33" s="46">
         <v>-1.0989999999999999E-3</v>
       </c>
@@ -15868,7 +15861,7 @@
         <v>-9.9099999999999991E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" s="46" customFormat="1">
       <c r="A34" s="46">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -15975,7 +15968,7 @@
         <v>-9.0300000000000005E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" s="46" customFormat="1">
       <c r="A35" s="46">
         <v>-1.0480000000000001E-3</v>
       </c>
@@ -16082,7 +16075,7 @@
         <v>-8.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" s="46" customFormat="1">
       <c r="A36" s="46">
         <v>-1.16E-3</v>
       </c>
@@ -16189,7 +16182,7 @@
         <v>-7.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" s="46" customFormat="1">
       <c r="A37" s="46">
         <v>-6.7299999999999999E-4</v>
       </c>
@@ -16296,7 +16289,7 @@
         <v>-6.6100000000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" s="46" customFormat="1">
       <c r="A38" s="46">
         <v>-1.121E-3</v>
       </c>
@@ -16403,7 +16396,7 @@
         <v>-5.8500000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" s="46" customFormat="1">
       <c r="A39" s="46">
         <v>-1.186E-3</v>
       </c>
@@ -16510,7 +16503,7 @@
         <v>-5.4699999999999996E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" s="46" customFormat="1">
       <c r="A40" s="46">
         <v>-1.286E-3</v>
       </c>
@@ -16617,7 +16610,7 @@
         <v>-4.5199999999999998E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" s="46" customFormat="1">
       <c r="A41" s="46">
         <v>-1.58E-3</v>
       </c>
@@ -16724,7 +16717,7 @@
         <v>-4.0299999999999998E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" s="46" customFormat="1">
       <c r="A42" s="46">
         <v>-2.0330000000000001E-3</v>
       </c>
@@ -16831,7 +16824,7 @@
         <v>-3.88E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" s="46" customFormat="1">
       <c r="A43" s="46">
         <v>-2.0869999999999999E-3</v>
       </c>
@@ -16938,7 +16931,7 @@
         <v>-2.9100000000000003E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" s="46" customFormat="1">
       <c r="A44" s="46">
         <v>-2.849E-3</v>
       </c>
@@ -17045,7 +17038,7 @@
         <v>-3.21E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" s="46" customFormat="1">
       <c r="A45" s="46">
         <v>-6.3270000000000002E-3</v>
       </c>
@@ -17152,7 +17145,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" s="46" customFormat="1">
       <c r="A46" s="46">
         <v>-6.0809999999999996E-3</v>
       </c>
@@ -17259,7 +17252,7 @@
         <v>5.4199999999999995E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" s="46" customFormat="1">
       <c r="A47" s="46">
         <v>-6.071E-3</v>
       </c>
@@ -17366,7 +17359,7 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" s="46" customFormat="1">
       <c r="A48" s="46">
         <v>-5.8399999999999997E-3</v>
       </c>
@@ -17473,7 +17466,7 @@
         <v>4.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" s="46" customFormat="1">
       <c r="A49" s="46">
         <v>-5.6369999999999996E-3</v>
       </c>
@@ -17580,7 +17573,7 @@
         <v>4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" s="46" customFormat="1">
       <c r="A50" s="46">
         <v>-5.4339999999999996E-3</v>
       </c>
@@ -17687,7 +17680,7 @@
         <v>3.3799999999999998E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" s="46" customFormat="1">
       <c r="A51" s="46">
         <v>-5.3410000000000003E-3</v>
       </c>
@@ -17794,7 +17787,7 @@
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" s="46" customFormat="1">
       <c r="A52" s="46">
         <v>-4.9280000000000001E-3</v>
       </c>
@@ -17901,7 +17894,7 @@
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" s="46" customFormat="1">
       <c r="A53" s="46">
         <v>-4.6189999999999998E-3</v>
       </c>
@@ -18008,7 +18001,7 @@
         <v>4.3999999999999999E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" s="46" customFormat="1">
       <c r="A54" s="46">
         <v>-4.1190000000000003E-3</v>
       </c>
@@ -18115,7 +18108,7 @@
         <v>-7.8999999999999996E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" s="46" customFormat="1">
       <c r="A55" s="46">
         <v>-3.8089999999999999E-3</v>
       </c>
@@ -18222,7 +18215,7 @@
         <v>-2.0699999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" s="46" customFormat="1">
       <c r="A56" s="46">
         <v>-3.787E-3</v>
       </c>
@@ -18329,7 +18322,7 @@
         <v>-3.2200000000000002E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" s="46" customFormat="1">
       <c r="A57" s="46">
         <v>-3.4320000000000002E-3</v>
       </c>
@@ -18436,7 +18429,7 @@
         <v>-3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" s="46" customFormat="1">
       <c r="A58" s="46">
         <v>-3.3530000000000001E-3</v>
       </c>
@@ -18543,7 +18536,7 @@
         <v>-5.4199999999999995E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" s="46" customFormat="1">
       <c r="A59" s="46">
         <v>-2.8609999999999998E-3</v>
       </c>
@@ -18650,7 +18643,7 @@
         <v>-6.2600000000000004E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" s="46" customFormat="1">
       <c r="A60" s="46">
         <v>-2.6029999999999998E-3</v>
       </c>
@@ -18757,7 +18750,7 @@
         <v>-7.18E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" s="46" customFormat="1">
       <c r="A61" s="46">
         <v>-2.4199999999999998E-3</v>
       </c>
@@ -18864,7 +18857,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" s="46" customFormat="1">
       <c r="A62" s="46">
         <v>-2.4949999999999998E-3</v>
       </c>
@@ -18971,7 +18964,7 @@
         <v>-9.2500000000000004E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" s="46" customFormat="1">
       <c r="A63" s="46">
         <v>-2.0400000000000001E-3</v>
       </c>
@@ -19078,7 +19071,7 @@
         <v>-9.810000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" s="46" customFormat="1">
       <c r="A64" s="46">
         <v>-2.2100000000000002E-3</v>
       </c>
@@ -19185,7 +19178,7 @@
         <v>-9.990000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" s="46" customFormat="1">
       <c r="A65" s="46">
         <v>-2.4069999999999999E-3</v>
       </c>
@@ -19292,7 +19285,7 @@
         <v>-1.078E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" s="46" customFormat="1">
       <c r="A66" s="46">
         <v>-2.2550000000000001E-3</v>
       </c>
@@ -19399,7 +19392,7 @@
         <v>-9.2400000000000002E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" s="46" customFormat="1">
       <c r="A67" s="46">
         <v>-2.7000000000000001E-3</v>
       </c>
@@ -19506,7 +19499,7 @@
         <v>-1.077E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" s="46" customFormat="1">
       <c r="A68" s="46">
         <v>-2.9009999999999999E-3</v>
       </c>
@@ -19613,7 +19606,7 @@
         <v>-9.6900000000000003E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" s="46" customFormat="1">
       <c r="A69" s="46">
         <v>-2.369E-3</v>
       </c>
@@ -19720,7 +19713,7 @@
         <v>-1.029E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" s="46" customFormat="1">
       <c r="A70" s="46">
         <v>-2.6830000000000001E-3</v>
       </c>
@@ -19827,7 +19820,7 @@
         <v>-9.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" s="46" customFormat="1">
       <c r="A71" s="46">
         <v>-2.6589999999999999E-3</v>
       </c>
@@ -19934,7 +19927,7 @@
         <v>-9.4399999999999996E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" s="46" customFormat="1">
       <c r="A72" s="46">
         <v>-2.2460000000000002E-3</v>
       </c>
@@ -20041,7 +20034,7 @@
         <v>-7.18E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" s="46" customFormat="1">
       <c r="A73" s="46">
         <v>-3.2469999999999999E-3</v>
       </c>
@@ -20148,7 +20141,7 @@
         <v>-7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" s="46" customFormat="1">
       <c r="A74" s="46">
         <v>-2.983E-3</v>
       </c>
@@ -20255,7 +20248,7 @@
         <v>-5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" s="46" customFormat="1">
       <c r="A75" s="46">
         <v>-3.29E-3</v>
       </c>
@@ -20362,7 +20355,7 @@
         <v>-6.2E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" s="46" customFormat="1">
       <c r="A76" s="46">
         <v>-3.588E-3</v>
       </c>
@@ -20469,7 +20462,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" s="46" customFormat="1">
       <c r="A77" s="46">
         <v>-3.8660000000000001E-3</v>
       </c>
@@ -20576,7 +20569,7 @@
         <v>-5.8699999999999996E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" s="46" customFormat="1">
       <c r="A78" s="46">
         <v>-3.7260000000000001E-3</v>
       </c>
@@ -20683,7 +20676,7 @@
         <v>-3.6499999999999998E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" s="46" customFormat="1">
       <c r="A79" s="46">
         <v>-4.6430000000000004E-3</v>
       </c>
@@ -20790,7 +20783,7 @@
         <v>-5.53E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" s="46" customFormat="1">
       <c r="A80" s="46">
         <v>-8.7010000000000004E-3</v>
       </c>
@@ -20897,16 +20890,16 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="81" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="46" customFormat="1"/>
+    <row r="82" s="46" customFormat="1"/>
+    <row r="83" s="46" customFormat="1"/>
+    <row r="84" s="46" customFormat="1"/>
+    <row r="85" s="46" customFormat="1"/>
+    <row r="86" s="46" customFormat="1"/>
+    <row r="87" s="46" customFormat="1"/>
+    <row r="88" s="46" customFormat="1"/>
+    <row r="89" s="46" customFormat="1"/>
+    <row r="90" s="46" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
